--- a/r4-core-24-template-from-buildfhirorg/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-24-template-from-buildfhirorg/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T15:16:38+00:00</t>
+    <t>2021-12-01T15:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
